--- a/biology/Histoire de la zoologie et de la botanique/Henri_Jacques-Félix/Henri_Jacques-Félix.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henri_Jacques-Félix/Henri_Jacques-Félix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henri_Jacques-F%C3%A9lix</t>
+          <t>Henri_Jacques-Félix</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Jacques-Félix né le 10 juin 1907 à Saint-Laurs et mort le 22 avril 2008 à Mandres-les-Roses[1], est un agronome, explorateur, collecteur et botaniste français, spécialiste de la flore d'Afrique tropicale, qui fut directeur de l'ORSTOM et travailla pour le Muséum national d'histoire naturelle à Paris.
-Diplômé de l'école de Nogent [2] lors de la promotion 1928-1929, tout comme Robert Dufournet, il est devenu Ingénieur d’agronomie coloniale dès 1932.
-Il parcourut le Cameroun d'octobre 1938 à mai 1940, récoltant quelque 3 300 spécimens[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Jacques-Félix né le 10 juin 1907 à Saint-Laurs et mort le 22 avril 2008 à Mandres-les-Roses, est un agronome, explorateur, collecteur et botaniste français, spécialiste de la flore d'Afrique tropicale, qui fut directeur de l'ORSTOM et travailla pour le Muséum national d'histoire naturelle à Paris.
+Diplômé de l'école de Nogent  lors de la promotion 1928-1929, tout comme Robert Dufournet, il est devenu Ingénieur d’agronomie coloniale dès 1932.
+Il parcourut le Cameroun d'octobre 1938 à mai 1940, récoltant quelque 3 300 spécimens.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Henri_Jacques-F%C3%A9lix</t>
+          <t>Henri_Jacques-Félix</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Jacquesfelixia (Poaceae, synonyme de Danthoniopsis)[4], de même que l'épithète spécifique de Artabotrys jacques-felicis, de Beilschmiedia jacques-felixii et de Pitcairnia feliciana.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Jacquesfelixia (Poaceae, synonyme de Danthoniopsis), de même que l'épithète spécifique de Artabotrys jacques-felicis, de Beilschmiedia jacques-felixii et de Pitcairnia feliciana.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Henri_Jacques-F%C3%A9lix</t>
+          <t>Henri_Jacques-Félix</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Une réserve botanique à prévoir au Cameroun : le sommet des Monts Bambutos », in Bulletin du Muséum, 2° s., tome 17, no 6, 1945
 « La vie et la mort du lac Tchad : rapports avec l'agriculture et l'élevage », in Bulletin agronomique, no 3, 1947
